--- a/data/spring-boot-microservices/crazy-hotels-service_structure.xlsx
+++ b/data/spring-boot-microservices/crazy-hotels-service_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2536" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2554" uniqueCount="283">
   <si>
     <t>Class Name</t>
   </si>
@@ -645,105 +645,105 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>MIN_TREEIFY_CAPACITY</t>
+  </si>
+  <si>
+    <t>keySet</t>
+  </si>
+  <si>
+    <t>entrySet</t>
+  </si>
+  <si>
+    <t>loadFactor</t>
+  </si>
+  <si>
+    <t>table</t>
+  </si>
+  <si>
+    <t>values</t>
+  </si>
+  <si>
+    <t>threshold</t>
+  </si>
+  <si>
+    <t>this$0</t>
+  </si>
+  <si>
+    <t>TREEIFY_THRESHOLD</t>
+  </si>
+  <si>
     <t>DEFAULT_INITIAL_CAPACITY</t>
   </si>
   <si>
-    <t>MIN_TREEIFY_CAPACITY</t>
+    <t>MAXIMUM_CAPACITY</t>
+  </si>
+  <si>
+    <t>modCount</t>
   </si>
   <si>
     <t>UNTREEIFY_THRESHOLD</t>
   </si>
   <si>
-    <t>MAXIMUM_CAPACITY</t>
-  </si>
-  <si>
-    <t>loadFactor</t>
-  </si>
-  <si>
-    <t>threshold</t>
-  </si>
-  <si>
-    <t>keySet</t>
-  </si>
-  <si>
-    <t>values</t>
-  </si>
-  <si>
-    <t>modCount</t>
+    <t>size</t>
   </si>
   <si>
     <t>DEFAULT_LOAD_FACTOR</t>
   </si>
   <si>
-    <t>TREEIFY_THRESHOLD</t>
-  </si>
-  <si>
-    <t>entrySet</t>
-  </si>
-  <si>
-    <t>this$0</t>
-  </si>
-  <si>
-    <t>table</t>
-  </si>
-  <si>
-    <t>size</t>
-  </si>
-  <si>
     <t>discount</t>
   </si>
   <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>crazyHotelId</t>
+  </si>
+  <si>
     <t>hotelName</t>
   </si>
   <si>
+    <t>amenitites</t>
+  </si>
+  <si>
     <t>rate</t>
   </si>
   <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>crazyHotelId</t>
-  </si>
-  <si>
-    <t>amenitites</t>
-  </si>
-  <si>
     <t>crazyHotelsService</t>
   </si>
   <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>success</t>
+  </si>
+  <si>
     <t>message</t>
   </si>
   <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>success</t>
-  </si>
-  <si>
     <t>data</t>
   </si>
   <si>
+    <t>HotelRepository</t>
+  </si>
+  <si>
     <t>crazyHotelRepo</t>
   </si>
   <si>
-    <t>HotelRepository</t>
-  </si>
-  <si>
     <t>crazyHotelServiceImpl</t>
   </si>
   <si>
     <t>hotelRepo</t>
   </si>
   <si>
+    <t>serialVersionUID</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
     <t>$assertionsDisabled</t>
   </si>
   <si>
-    <t>serialVersionUID</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
     <t>HotelRepsitory</t>
   </si>
   <si>
@@ -759,10 +759,16 @@
     <t>com.fasterxml.jackson.databind.ObjectMapper</t>
   </si>
   <si>
+    <t>crazyHotelServiceController</t>
+  </si>
+  <si>
     <t>crazyHotelService</t>
   </si>
   <si>
-    <t>crazyHotelServiceController</t>
+    <t>AUH</t>
+  </si>
+  <si>
+    <t>AUJ</t>
   </si>
   <si>
     <t>AUE</t>
@@ -771,12 +777,6 @@
     <t>$VALUES</t>
   </si>
   <si>
-    <t>AUH</t>
-  </si>
-  <si>
-    <t>AUJ</t>
-  </si>
-  <si>
     <t>crazyHotelsRepository</t>
   </si>
   <si>
@@ -864,13 +864,13 @@
     <t>0</t>
   </si>
   <si>
+    <t>8</t>
+  </si>
+  <si>
     <t>12</t>
   </si>
   <si>
     <t>14</t>
-  </si>
-  <si>
-    <t>8</t>
   </si>
 </sst>
 </file>
@@ -7167,7 +7167,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C60"/>
+  <dimension ref="A1:C66"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7351,43 +7351,43 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>201</v>
+        <v>102</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>203</v>
+        <v>118</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>122</v>
+        <v>201</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>123</v>
+        <v>202</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>269</v>
+        <v>279</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>122</v>
+        <v>201</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>129</v>
+        <v>203</v>
       </c>
       <c r="C20" t="s" s="0">
         <v>277</v>
@@ -7395,13 +7395,13 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>277</v>
+        <v>257</v>
       </c>
     </row>
     <row r="22">
@@ -7409,10 +7409,10 @@
         <v>122</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="23">
@@ -7420,10 +7420,10 @@
         <v>122</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>265</v>
+        <v>277</v>
       </c>
     </row>
     <row r="24">
@@ -7431,10 +7431,10 @@
         <v>122</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>265</v>
+        <v>277</v>
       </c>
     </row>
     <row r="25">
@@ -7442,7 +7442,7 @@
         <v>122</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C25" t="s" s="0">
         <v>265</v>
@@ -7453,7 +7453,7 @@
         <v>122</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C26" t="s" s="0">
         <v>265</v>
@@ -7464,10 +7464,10 @@
         <v>122</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>5</v>
+        <v>124</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="28">
@@ -7475,7 +7475,7 @@
         <v>122</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C28" t="s" s="0">
         <v>265</v>
@@ -7486,10 +7486,10 @@
         <v>122</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>16</v>
+        <v>127</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>280</v>
+        <v>265</v>
       </c>
     </row>
     <row r="30">
@@ -7497,54 +7497,54 @@
         <v>122</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>279</v>
+        <v>265</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>139</v>
+        <v>16</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>135</v>
+        <v>11</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>269</v>
+        <v>279</v>
       </c>
     </row>
     <row r="35">
@@ -7552,10 +7552,10 @@
         <v>134</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="36">
@@ -7563,54 +7563,54 @@
         <v>134</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>277</v>
+        <v>269</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>279</v>
+        <v>269</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>265</v>
+        <v>282</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>265</v>
+        <v>277</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>273</v>
+        <v>279</v>
       </c>
     </row>
     <row r="41">
@@ -7618,7 +7618,7 @@
         <v>142</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C41" t="s" s="0">
         <v>265</v>
@@ -7626,54 +7626,54 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>167</v>
+        <v>143</v>
       </c>
       <c r="C42" t="s" s="0">
-        <v>279</v>
+        <v>265</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>173</v>
+        <v>145</v>
       </c>
       <c r="C43" t="s" s="0">
-        <v>267</v>
+        <v>273</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="C44" t="s" s="0">
-        <v>272</v>
+        <v>265</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="C45" t="s" s="0">
-        <v>265</v>
+        <v>258</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="C46" t="s" s="0">
         <v>265</v>
@@ -7681,13 +7681,13 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="C47" t="s" s="0">
-        <v>279</v>
+        <v>265</v>
       </c>
     </row>
     <row r="48">
@@ -7695,7 +7695,7 @@
         <v>166</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C48" t="s" s="0">
         <v>279</v>
@@ -7703,32 +7703,32 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C49" t="s" s="0">
-        <v>279</v>
+        <v>267</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C50" t="s" s="0">
-        <v>265</v>
+        <v>272</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="C51" t="s" s="0">
         <v>265</v>
@@ -7736,21 +7736,21 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C52" t="s" s="0">
-        <v>282</v>
+        <v>265</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="C53" t="s" s="0">
         <v>279</v>
@@ -7758,65 +7758,65 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="C54" t="s" s="0">
-        <v>265</v>
+        <v>279</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C55" t="s" s="0">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>78</v>
+        <v>178</v>
       </c>
       <c r="C56" t="s" s="0">
-        <v>279</v>
+        <v>265</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C57" t="s" s="0">
-        <v>279</v>
+        <v>265</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C58" t="s" s="0">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="C59" t="s" s="0">
         <v>279</v>
@@ -7824,12 +7824,78 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="B60" t="s" s="0">
+        <v>178</v>
+      </c>
+      <c r="C60" t="s" s="0">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="B61" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="C61" t="s" s="0">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="B62" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="C62" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="B63" t="s" s="0">
+        <v>184</v>
+      </c>
+      <c r="C63" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="B64" t="s" s="0">
+        <v>187</v>
+      </c>
+      <c r="C64" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="0">
         <v>196</v>
       </c>
-      <c r="B60" t="s" s="0">
+      <c r="B65" t="s" s="0">
+        <v>197</v>
+      </c>
+      <c r="C65" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="0">
+        <v>196</v>
+      </c>
+      <c r="B66" t="s" s="0">
         <v>121</v>
       </c>
-      <c r="C60" t="s" s="0">
+      <c r="C66" t="s" s="0">
         <v>267</v>
       </c>
     </row>
@@ -8066,7 +8132,7 @@
         <v>28</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>17</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4">
@@ -8080,7 +8146,7 @@
         <v>28</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>17</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5">
@@ -8094,7 +8160,7 @@
         <v>28</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>17</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6">
@@ -8108,7 +8174,7 @@
         <v>28</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7">
@@ -8122,7 +8188,7 @@
         <v>28</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>17</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8">
@@ -8136,7 +8202,7 @@
         <v>28</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>69</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9">
@@ -8150,7 +8216,7 @@
         <v>28</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>79</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10">
@@ -8178,7 +8244,7 @@
         <v>28</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>89</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12">
@@ -8206,7 +8272,7 @@
         <v>28</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>69</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14">
@@ -8220,7 +8286,7 @@
         <v>28</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>134</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15">
@@ -8234,7 +8300,7 @@
         <v>28</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>92</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16">
@@ -8248,7 +8314,7 @@
         <v>28</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>17</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17">
@@ -8276,7 +8342,7 @@
         <v>170</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>12</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19">
@@ -8290,7 +8356,7 @@
         <v>170</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>12</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20">
@@ -8304,7 +8370,7 @@
         <v>170</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>107</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21">
@@ -8318,7 +8384,7 @@
         <v>170</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22">
@@ -8332,7 +8398,7 @@
         <v>170</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>113</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23">
@@ -8360,7 +8426,7 @@
         <v>170</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25">
@@ -8374,7 +8440,7 @@
         <v>170</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26">
@@ -8388,7 +8454,7 @@
         <v>170</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27">
@@ -8430,7 +8496,7 @@
         <v>28</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>17</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30">
@@ -8444,7 +8510,7 @@
         <v>28</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>17</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31">
@@ -8458,7 +8524,7 @@
         <v>28</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>17</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32">
@@ -8466,13 +8532,13 @@
         <v>132</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C32" t="s" s="0">
         <v>28</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>89</v>
+        <v>180</v>
       </c>
     </row>
     <row r="33">
@@ -8480,13 +8546,13 @@
         <v>132</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C33" t="s" s="0">
         <v>28</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>17</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34">
@@ -8494,13 +8560,13 @@
         <v>132</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C34" t="s" s="0">
         <v>28</v>
       </c>
       <c r="D34" t="s" s="0">
-        <v>180</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35">
@@ -8514,7 +8580,7 @@
         <v>28</v>
       </c>
       <c r="D35" t="s" s="0">
-        <v>69</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36">
@@ -8522,13 +8588,13 @@
         <v>132</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C36" t="s" s="0">
         <v>28</v>
       </c>
       <c r="D36" t="s" s="0">
-        <v>79</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37">
@@ -8536,7 +8602,7 @@
         <v>132</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C37" t="s" s="0">
         <v>28</v>
@@ -8550,13 +8616,13 @@
         <v>132</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C38" t="s" s="0">
         <v>28</v>
       </c>
       <c r="D38" t="s" s="0">
-        <v>89</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39">
@@ -8564,7 +8630,7 @@
         <v>132</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C39" t="s" s="0">
         <v>28</v>
@@ -8578,13 +8644,13 @@
         <v>132</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C40" t="s" s="0">
         <v>28</v>
       </c>
       <c r="D40" t="s" s="0">
-        <v>69</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41">
@@ -8598,7 +8664,7 @@
         <v>28</v>
       </c>
       <c r="D41" t="s" s="0">
-        <v>92</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42">
@@ -8612,7 +8678,7 @@
         <v>28</v>
       </c>
       <c r="D42" t="s" s="0">
-        <v>17</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43">
@@ -8626,7 +8692,7 @@
         <v>28</v>
       </c>
       <c r="D43" t="s" s="0">
-        <v>166</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44">
@@ -8640,7 +8706,7 @@
         <v>28</v>
       </c>
       <c r="D44" t="s" s="0">
-        <v>42</v>
+        <v>166</v>
       </c>
     </row>
     <row r="45">
@@ -8668,7 +8734,7 @@
         <v>28</v>
       </c>
       <c r="D46" t="s" s="0">
-        <v>17</v>
+        <v>69</v>
       </c>
     </row>
     <row r="47">
@@ -8682,7 +8748,7 @@
         <v>28</v>
       </c>
       <c r="D47" t="s" s="0">
-        <v>17</v>
+        <v>69</v>
       </c>
     </row>
     <row r="48">
@@ -8696,7 +8762,7 @@
         <v>28</v>
       </c>
       <c r="D48" t="s" s="0">
-        <v>17</v>
+        <v>89</v>
       </c>
     </row>
     <row r="49">
@@ -8710,7 +8776,7 @@
         <v>28</v>
       </c>
       <c r="D49" t="s" s="0">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="50">
@@ -8724,7 +8790,7 @@
         <v>28</v>
       </c>
       <c r="D50" t="s" s="0">
-        <v>17</v>
+        <v>79</v>
       </c>
     </row>
     <row r="51">
@@ -8738,7 +8804,7 @@
         <v>28</v>
       </c>
       <c r="D51" t="s" s="0">
-        <v>69</v>
+        <v>17</v>
       </c>
     </row>
     <row r="52">
@@ -8746,13 +8812,13 @@
         <v>140</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C52" t="s" s="0">
         <v>28</v>
       </c>
       <c r="D52" t="s" s="0">
-        <v>79</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53">
@@ -8760,7 +8826,7 @@
         <v>140</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C53" t="s" s="0">
         <v>28</v>
@@ -8774,13 +8840,13 @@
         <v>140</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C54" t="s" s="0">
         <v>28</v>
       </c>
       <c r="D54" t="s" s="0">
-        <v>89</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55">
@@ -8788,7 +8854,7 @@
         <v>140</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C55" t="s" s="0">
         <v>28</v>
@@ -8802,13 +8868,13 @@
         <v>140</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C56" t="s" s="0">
         <v>28</v>
       </c>
       <c r="D56" t="s" s="0">
-        <v>69</v>
+        <v>17</v>
       </c>
     </row>
     <row r="57">
@@ -8816,13 +8882,13 @@
         <v>140</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C57" t="s" s="0">
         <v>28</v>
       </c>
       <c r="D57" t="s" s="0">
-        <v>142</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58">
@@ -8830,13 +8896,13 @@
         <v>140</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C58" t="s" s="0">
         <v>28</v>
       </c>
       <c r="D58" t="s" s="0">
-        <v>92</v>
+        <v>142</v>
       </c>
     </row>
     <row r="59">
@@ -8850,7 +8916,7 @@
         <v>28</v>
       </c>
       <c r="D59" t="s" s="0">
-        <v>17</v>
+        <v>89</v>
       </c>
     </row>
     <row r="60">
@@ -8889,10 +8955,10 @@
         <v>237</v>
       </c>
       <c r="C62" t="s" s="0">
-        <v>28</v>
+        <v>170</v>
       </c>
       <c r="D62" t="s" s="0">
-        <v>7</v>
+        <v>238</v>
       </c>
     </row>
     <row r="63">
@@ -8900,13 +8966,13 @@
         <v>147</v>
       </c>
       <c r="B63" t="s" s="0">
+        <v>237</v>
+      </c>
+      <c r="C63" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="D63" t="s" s="0">
         <v>238</v>
-      </c>
-      <c r="C63" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="D63" t="s" s="0">
-        <v>239</v>
       </c>
     </row>
     <row r="64">
@@ -8914,13 +8980,13 @@
         <v>147</v>
       </c>
       <c r="B64" t="s" s="0">
+        <v>237</v>
+      </c>
+      <c r="C64" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="D64" t="s" s="0">
         <v>238</v>
-      </c>
-      <c r="C64" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="D64" t="s" s="0">
-        <v>239</v>
       </c>
     </row>
     <row r="65">
@@ -8928,13 +8994,13 @@
         <v>147</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C65" t="s" s="0">
-        <v>170</v>
+        <v>28</v>
       </c>
       <c r="D65" t="s" s="0">
-        <v>239</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66">
@@ -9004,7 +9070,7 @@
         <v>170</v>
       </c>
       <c r="D70" t="s" s="0">
-        <v>120</v>
+        <v>201</v>
       </c>
     </row>
     <row r="71">
@@ -9018,7 +9084,7 @@
         <v>170</v>
       </c>
       <c r="D71" t="s" s="0">
-        <v>201</v>
+        <v>120</v>
       </c>
     </row>
     <row r="72">
@@ -9043,10 +9109,10 @@
         <v>248</v>
       </c>
       <c r="C73" t="s" s="0">
-        <v>170</v>
+        <v>6</v>
       </c>
       <c r="D73" t="s" s="0">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="74">
@@ -9071,10 +9137,10 @@
         <v>250</v>
       </c>
       <c r="C75" t="s" s="0">
-        <v>6</v>
+        <v>170</v>
       </c>
       <c r="D75" t="s" s="0">
-        <v>183</v>
+        <v>189</v>
       </c>
     </row>
     <row r="76">
@@ -9847,7 +9913,7 @@
         <v>183</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E2" t="s" s="0">
         <v>257</v>
@@ -9864,7 +9930,7 @@
         <v>183</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E3" t="s" s="0">
         <v>257</v>
@@ -9881,7 +9947,7 @@
         <v>183</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E4" t="s" s="0">
         <v>257</v>
@@ -9898,7 +9964,7 @@
         <v>183</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E5" t="s" s="0">
         <v>257</v>
@@ -9915,7 +9981,7 @@
         <v>183</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E6" t="s" s="0">
         <v>265</v>
